--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Quarterly Results of Danlaw Technologies India(in Rs. Cr.)</t>
   </si>
@@ -218,6 +218,141 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>6.72</t>
+  </si>
+  <si>
+    <t>8.08</t>
+  </si>
+  <si>
+    <t>6.63</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>7.73</t>
+  </si>
+  <si>
+    <t>12.87</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>13.57</t>
+  </si>
+  <si>
+    <t>14.94</t>
+  </si>
+  <si>
+    <t>16.49</t>
+  </si>
+  <si>
+    <t>22.26</t>
+  </si>
+  <si>
+    <t>18.02</t>
+  </si>
+  <si>
+    <t>43.55</t>
+  </si>
+  <si>
+    <t>48.25</t>
+  </si>
+  <si>
+    <t>46.39</t>
+  </si>
+  <si>
+    <t>50.05</t>
+  </si>
+  <si>
+    <t>53.02</t>
+  </si>
+  <si>
+    <t>61.52</t>
+  </si>
+  <si>
+    <t>47.30</t>
+  </si>
+  <si>
+    <t>54.08</t>
   </si>
 </sst>
 </file>
@@ -656,8 +791,8 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>2.19</v>
+      <c r="B2" t="s">
+        <v>68</v>
       </c>
       <c r="C2">
         <v>2.19</v>
@@ -690,7 +825,7 @@
         <v>0.39</v>
       </c>
       <c r="M2">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N2">
         <v>0.39</v>
@@ -727,8 +862,8 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
-        <v>2.99</v>
+      <c r="B3" t="s">
+        <v>69</v>
       </c>
       <c r="C3">
         <v>2.99</v>
@@ -761,7 +896,7 @@
         <v>0.65</v>
       </c>
       <c r="M3">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N3">
         <v>0.65</v>
@@ -798,8 +933,8 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>1.42</v>
+      <c r="B4" t="s">
+        <v>70</v>
       </c>
       <c r="C4">
         <v>1.42</v>
@@ -832,7 +967,7 @@
         <v>-0.45</v>
       </c>
       <c r="M4">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N4">
         <v>-0.45</v>
@@ -869,8 +1004,8 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>1.53</v>
+      <c r="B5" t="s">
+        <v>71</v>
       </c>
       <c r="C5">
         <v>1.53</v>
@@ -903,7 +1038,7 @@
         <v>-0.22</v>
       </c>
       <c r="M5">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N5">
         <v>-0.22</v>
@@ -940,8 +1075,8 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
-        <v>2.1</v>
+      <c r="B6" t="s">
+        <v>72</v>
       </c>
       <c r="C6">
         <v>2.1</v>
@@ -974,7 +1109,7 @@
         <v>0.38</v>
       </c>
       <c r="M6">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N6">
         <v>0.38</v>
@@ -1011,8 +1146,8 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
-        <v>2.41</v>
+      <c r="B7" t="s">
+        <v>73</v>
       </c>
       <c r="C7">
         <v>2.41</v>
@@ -1045,7 +1180,7 @@
         <v>0.55</v>
       </c>
       <c r="M7">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N7">
         <v>0.55</v>
@@ -1082,8 +1217,8 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
-        <v>2.7</v>
+      <c r="B8" t="s">
+        <v>74</v>
       </c>
       <c r="C8">
         <v>2.7</v>
@@ -1116,7 +1251,7 @@
         <v>0.46</v>
       </c>
       <c r="M8">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N8">
         <v>0.46</v>
@@ -1153,8 +1288,8 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
-        <v>3.15</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
       <c r="C9">
         <v>3.15</v>
@@ -1187,7 +1322,7 @@
         <v>1.25</v>
       </c>
       <c r="M9">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N9">
         <v>1.25</v>
@@ -1224,8 +1359,8 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
-        <v>2.65</v>
+      <c r="B10" t="s">
+        <v>76</v>
       </c>
       <c r="C10">
         <v>2.65</v>
@@ -1237,7 +1372,7 @@
         <v>0.26</v>
       </c>
       <c r="F10">
-        <v>-0.003499999999999997</v>
+        <v>-0</v>
       </c>
       <c r="G10">
         <v>1.48</v>
@@ -1295,8 +1430,8 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
-        <v>2.29</v>
+      <c r="B11" t="s">
+        <v>77</v>
       </c>
       <c r="C11">
         <v>2.29</v>
@@ -1320,7 +1455,7 @@
         <v>0.42</v>
       </c>
       <c r="J11">
-        <v>1.061590909090909</v>
+        <v>1.06</v>
       </c>
       <c r="K11">
         <v>0.34</v>
@@ -1329,7 +1464,7 @@
         <v>0.34</v>
       </c>
       <c r="M11">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N11">
         <v>0.34</v>
@@ -1366,8 +1501,8 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
-        <v>2.95</v>
+      <c r="B12" t="s">
+        <v>78</v>
       </c>
       <c r="C12">
         <v>2.95</v>
@@ -1400,7 +1535,7 @@
         <v>0.55</v>
       </c>
       <c r="M12">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N12">
         <v>0.55</v>
@@ -1437,8 +1572,8 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
-        <v>2.25</v>
+      <c r="B13" t="s">
+        <v>79</v>
       </c>
       <c r="C13">
         <v>2.25</v>
@@ -1471,7 +1606,7 @@
         <v>0.31</v>
       </c>
       <c r="M13">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N13">
         <v>0.31</v>
@@ -1508,8 +1643,8 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
-        <v>2.81</v>
+      <c r="B14" t="s">
+        <v>80</v>
       </c>
       <c r="C14">
         <v>2.81</v>
@@ -1542,7 +1677,7 @@
         <v>0.52</v>
       </c>
       <c r="M14">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N14">
         <v>0.52</v>
@@ -1579,8 +1714,8 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
-        <v>2.91</v>
+      <c r="B15" t="s">
+        <v>81</v>
       </c>
       <c r="C15">
         <v>2.91</v>
@@ -1650,8 +1785,8 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
-        <v>3.52</v>
+      <c r="B16" t="s">
+        <v>82</v>
       </c>
       <c r="C16">
         <v>3.52</v>
@@ -1684,7 +1819,7 @@
         <v>0.36</v>
       </c>
       <c r="M16">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N16">
         <v>0.36</v>
@@ -1721,8 +1856,8 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
-        <v>3.62</v>
+      <c r="B17" t="s">
+        <v>83</v>
       </c>
       <c r="C17">
         <v>3.62</v>
@@ -1755,7 +1890,7 @@
         <v>0.55</v>
       </c>
       <c r="M17">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N17">
         <v>0.55</v>
@@ -1792,8 +1927,8 @@
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
-        <v>2.77</v>
+      <c r="B18" t="s">
+        <v>84</v>
       </c>
       <c r="C18">
         <v>2.77</v>
@@ -1826,7 +1961,7 @@
         <v>0.28</v>
       </c>
       <c r="M18">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N18">
         <v>0.28</v>
@@ -1863,8 +1998,8 @@
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
-        <v>4.92</v>
+      <c r="B19" t="s">
+        <v>85</v>
       </c>
       <c r="C19">
         <v>4.92</v>
@@ -1934,8 +2069,8 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20">
-        <v>6.9</v>
+      <c r="B20" t="s">
+        <v>86</v>
       </c>
       <c r="C20">
         <v>6.9</v>
@@ -1947,7 +2082,7 @@
         <v>0.11</v>
       </c>
       <c r="F20">
-        <v>-0.003499999999999997</v>
+        <v>-0</v>
       </c>
       <c r="G20">
         <v>2.17</v>
@@ -1968,7 +2103,7 @@
         <v>0.45</v>
       </c>
       <c r="M20">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N20">
         <v>0.45</v>
@@ -2005,8 +2140,8 @@
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
-        <v>5.9</v>
+      <c r="B21" t="s">
+        <v>87</v>
       </c>
       <c r="C21">
         <v>5.9</v>
@@ -2039,7 +2174,7 @@
         <v>0.51</v>
       </c>
       <c r="M21">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N21">
         <v>0.51</v>
@@ -2076,8 +2211,8 @@
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>5.28</v>
+      <c r="B22" t="s">
+        <v>88</v>
       </c>
       <c r="C22">
         <v>5.28</v>
@@ -2110,7 +2245,7 @@
         <v>-0.23</v>
       </c>
       <c r="M22">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N22">
         <v>-0.23</v>
@@ -2147,8 +2282,8 @@
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23">
-        <v>6.72</v>
+      <c r="B23" t="s">
+        <v>89</v>
       </c>
       <c r="C23">
         <v>6.72</v>
@@ -2218,8 +2353,8 @@
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B24">
-        <v>8.08</v>
+      <c r="B24" t="s">
+        <v>90</v>
       </c>
       <c r="C24">
         <v>8.08</v>
@@ -2252,7 +2387,7 @@
         <v>0.37</v>
       </c>
       <c r="M24">
-        <v>0.2373076923076923</v>
+        <v>0.24</v>
       </c>
       <c r="N24">
         <v>0.37</v>
@@ -2289,8 +2424,8 @@
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25">
-        <v>6.63</v>
+      <c r="B25" t="s">
+        <v>91</v>
       </c>
       <c r="C25">
         <v>6.63</v>
@@ -2299,10 +2434,10 @@
         <v>3.31</v>
       </c>
       <c r="E25">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F25">
-        <v>-0.003499999999999997</v>
+        <v>-0</v>
       </c>
       <c r="G25">
         <v>1.88</v>
@@ -2360,8 +2495,8 @@
       <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26">
-        <v>2.42</v>
+      <c r="B26" t="s">
+        <v>92</v>
       </c>
       <c r="C26">
         <v>2.42</v>
@@ -2431,8 +2566,8 @@
       <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B27">
-        <v>2.26</v>
+      <c r="B27" t="s">
+        <v>93</v>
       </c>
       <c r="C27">
         <v>2.26</v>
@@ -2502,8 +2637,8 @@
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28">
-        <v>4.03</v>
+      <c r="B28" t="s">
+        <v>94</v>
       </c>
       <c r="C28">
         <v>4.03</v>
@@ -2512,7 +2647,7 @@
         <v>1.64</v>
       </c>
       <c r="E28">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F28">
         <v>0.04</v>
@@ -2573,8 +2708,8 @@
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B29">
-        <v>1.85</v>
+      <c r="B29" t="s">
+        <v>95</v>
       </c>
       <c r="C29">
         <v>1.85</v>
@@ -2644,8 +2779,8 @@
       <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B30">
-        <v>7.73</v>
+      <c r="B30" t="s">
+        <v>96</v>
       </c>
       <c r="C30">
         <v>7.73</v>
@@ -2654,7 +2789,7 @@
         <v>5.3</v>
       </c>
       <c r="E30">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F30">
         <v>0.02</v>
@@ -2715,8 +2850,8 @@
       <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B31">
-        <v>12.87</v>
+      <c r="B31" t="s">
+        <v>97</v>
       </c>
       <c r="C31">
         <v>12.87</v>
@@ -2725,10 +2860,10 @@
         <v>9.5</v>
       </c>
       <c r="E31">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F31">
-        <v>-0.003499999999999997</v>
+        <v>-0</v>
       </c>
       <c r="G31">
         <v>2.74</v>
@@ -2786,8 +2921,8 @@
       <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B32">
-        <v>5.36</v>
+      <c r="B32" t="s">
+        <v>98</v>
       </c>
       <c r="C32">
         <v>5.36</v>
@@ -2796,7 +2931,7 @@
         <v>2.84</v>
       </c>
       <c r="E32">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F32">
         <v>0.01</v>
@@ -2857,8 +2992,8 @@
       <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="B33">
-        <v>7.2</v>
+      <c r="B33" t="s">
+        <v>99</v>
       </c>
       <c r="C33">
         <v>7.2</v>
@@ -2867,7 +3002,7 @@
         <v>4.47</v>
       </c>
       <c r="E33">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F33">
         <v>0.32</v>
@@ -2928,8 +3063,8 @@
       <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B34">
-        <v>13.57</v>
+      <c r="B34" t="s">
+        <v>100</v>
       </c>
       <c r="C34">
         <v>13.57</v>
@@ -2938,10 +3073,10 @@
         <v>9.25</v>
       </c>
       <c r="E34">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F34">
-        <v>-0.003499999999999997</v>
+        <v>-0</v>
       </c>
       <c r="G34">
         <v>2.59</v>
@@ -2999,8 +3134,8 @@
       <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="B35">
-        <v>14.94</v>
+      <c r="B35" t="s">
+        <v>101</v>
       </c>
       <c r="C35">
         <v>14.94</v>
@@ -3009,7 +3144,7 @@
         <v>8.83</v>
       </c>
       <c r="E35">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F35">
         <v>0.32</v>
@@ -3070,8 +3205,8 @@
       <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="B36">
-        <v>16.49</v>
+      <c r="B36" t="s">
+        <v>102</v>
       </c>
       <c r="C36">
         <v>16.49</v>
@@ -3080,7 +3215,7 @@
         <v>12.85</v>
       </c>
       <c r="E36">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F36">
         <v>-0.63</v>
@@ -3141,8 +3276,8 @@
       <c r="A37" t="s">
         <v>58</v>
       </c>
-      <c r="B37">
-        <v>22.26</v>
+      <c r="B37" t="s">
+        <v>103</v>
       </c>
       <c r="C37">
         <v>22.26</v>
@@ -3151,7 +3286,7 @@
         <v>16.46</v>
       </c>
       <c r="E37">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F37">
         <v>0.28</v>
@@ -3212,8 +3347,8 @@
       <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38">
-        <v>18.02</v>
+      <c r="B38" t="s">
+        <v>104</v>
       </c>
       <c r="C38">
         <v>18.02</v>
@@ -3222,7 +3357,7 @@
         <v>13.23</v>
       </c>
       <c r="E38">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F38">
         <v>0.03</v>
@@ -3283,8 +3418,8 @@
       <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="B39">
-        <v>43.55</v>
+      <c r="B39" t="s">
+        <v>105</v>
       </c>
       <c r="C39">
         <v>43.55</v>
@@ -3293,7 +3428,7 @@
         <v>28.27</v>
       </c>
       <c r="E39">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F39">
         <v>0.72</v>
@@ -3354,8 +3489,8 @@
       <c r="A40" t="s">
         <v>61</v>
       </c>
-      <c r="B40">
-        <v>48.25</v>
+      <c r="B40" t="s">
+        <v>106</v>
       </c>
       <c r="C40">
         <v>48.25</v>
@@ -3364,7 +3499,7 @@
         <v>30.04</v>
       </c>
       <c r="E40">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F40">
         <v>0.04</v>
@@ -3425,8 +3560,8 @@
       <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B41">
-        <v>46.39</v>
+      <c r="B41" t="s">
+        <v>107</v>
       </c>
       <c r="C41">
         <v>46.39</v>
@@ -3435,7 +3570,7 @@
         <v>29.98</v>
       </c>
       <c r="E41">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F41">
         <v>0.23</v>
@@ -3496,8 +3631,8 @@
       <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="B42">
-        <v>50.05</v>
+      <c r="B42" t="s">
+        <v>108</v>
       </c>
       <c r="C42">
         <v>50.05</v>
@@ -3506,7 +3641,7 @@
         <v>31.32</v>
       </c>
       <c r="E42">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F42">
         <v>-0.98</v>
@@ -3567,8 +3702,8 @@
       <c r="A43" t="s">
         <v>64</v>
       </c>
-      <c r="B43">
-        <v>53.02</v>
+      <c r="B43" t="s">
+        <v>109</v>
       </c>
       <c r="C43">
         <v>53.02</v>
@@ -3577,7 +3712,7 @@
         <v>31.3</v>
       </c>
       <c r="E43">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F43">
         <v>0.45</v>
@@ -3638,8 +3773,8 @@
       <c r="A44" t="s">
         <v>65</v>
       </c>
-      <c r="B44">
-        <v>61.52</v>
+      <c r="B44" t="s">
+        <v>110</v>
       </c>
       <c r="C44">
         <v>61.52</v>
@@ -3648,7 +3783,7 @@
         <v>35.97</v>
       </c>
       <c r="E44">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F44">
         <v>0.78</v>
@@ -3709,8 +3844,8 @@
       <c r="A45" t="s">
         <v>66</v>
       </c>
-      <c r="B45">
-        <v>47.3</v>
+      <c r="B45" t="s">
+        <v>111</v>
       </c>
       <c r="C45">
         <v>47.3</v>
@@ -3719,7 +3854,7 @@
         <v>29.13</v>
       </c>
       <c r="E45">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F45">
         <v>-0.79</v>
@@ -3780,8 +3915,8 @@
       <c r="A46" t="s">
         <v>67</v>
       </c>
-      <c r="B46">
-        <v>54.08</v>
+      <c r="B46" t="s">
+        <v>112</v>
       </c>
       <c r="C46">
         <v>54.08</v>
@@ -3790,7 +3925,7 @@
         <v>31.12</v>
       </c>
       <c r="E46">
-        <v>0.3207692307692308</v>
+        <v>0.32</v>
       </c>
       <c r="F46">
         <v>1.06</v>
